--- a/2020_EOY_metrics.xlsx
+++ b/2020_EOY_metrics.xlsx
@@ -8,13 +8,54 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\querybridge\envs\budget_scenario\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{108E93E4-3E70-4A30-81E9-D491AE5F6589}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EEB1CF-B994-4AEE-BDC6-18EF4CD537D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27465" yWindow="2295" windowWidth="23160" windowHeight="15660" xr2:uid="{0D8B7814-A506-40AD-A3A3-71FB9CA1E15E}"/>
+    <workbookView xWindow="34125" yWindow="1155" windowWidth="23160" windowHeight="18600" xr2:uid="{0D8B7814-A506-40AD-A3A3-71FB9CA1E15E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$K$16:$K$17</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$J$18</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$K$20</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">Sheet1!$K$21</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">Sheet1!$K$22</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$M$18</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">Sheet1!$N$18</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">Sheet1!$H$10</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">Sheet1!$F$20</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">Sheet1!$L$22</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">1089712</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
   <si>
     <t>traffic</t>
   </si>
@@ -75,27 +116,69 @@
     <t>Spend</t>
   </si>
   <si>
-    <t>Desktop</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
     <t>Traffic</t>
+  </si>
+  <si>
+    <t>overall cpc</t>
+  </si>
+  <si>
+    <t>cost per trans</t>
+  </si>
+  <si>
+    <t>CPC</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Visits</t>
+  </si>
+  <si>
+    <t>mobile orders</t>
+  </si>
+  <si>
+    <t>Desktop Traffic</t>
+  </si>
+  <si>
+    <t>Mobile Traffic</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>Transactions</t>
+  </si>
+  <si>
+    <t>Revenue per Visit</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>AOV</t>
+  </si>
+  <si>
+    <t>Baseline</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="8">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="0.0000%"/>
+    <numFmt numFmtId="174" formatCode="0.00000000%"/>
+    <numFmt numFmtId="176" formatCode="0.0000000000%"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,16 +193,49 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,31 +243,104 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="6">
+    <cellStyle name="Accent2" xfId="5" builtinId="33"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Warning Text" xfId="4" builtinId="11"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -463,313 +652,775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B296329-B9EC-480C-9CF9-00A1A0F87CFD}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:O54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52:C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="F2" s="18"/>
+      <c r="G2" s="10"/>
+      <c r="J2">
+        <v>363776549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="12">
         <v>263129477</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="12">
         <v>263129877</v>
       </c>
-      <c r="D2" s="7">
-        <f>B2/C2-1</f>
+      <c r="E3" s="13">
+        <f>C3/D3-1</f>
         <v>-1.5201618477345136E-6</v>
       </c>
-      <c r="E2" s="1">
-        <f>B2-C2</f>
+      <c r="F3" s="12">
+        <f>C3-D3</f>
         <v>-400</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G3" s="10"/>
+      <c r="J3">
+        <v>306643565</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="10"/>
+      <c r="B4" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="12">
         <v>190497816</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="12">
         <v>190481558</v>
       </c>
-      <c r="D3" s="3">
-        <f>B3/C3-1</f>
+      <c r="E4" s="14">
+        <f>C4/D4-1</f>
         <v>8.535209482074535E-5</v>
       </c>
-      <c r="E3" s="1">
-        <f>B3-C3</f>
+      <c r="F4" s="12">
+        <f>C4-D4</f>
         <v>16258</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="G4" s="10"/>
+      <c r="J4">
+        <f>J2/J3</f>
+        <v>1.1863172442571883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <f>B9/B2</f>
+      <c r="C5" s="15">
+        <f>C10/C3</f>
         <v>2.034719557474741</v>
       </c>
-      <c r="C4" s="4">
-        <f>C9/C2</f>
+      <c r="D5" s="15">
+        <f>D10/D3</f>
         <v>2.0103908800899868</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="10"/>
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3">
+      <c r="C6" s="14">
         <v>4.1999999999999997E-3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="D6" s="14">
         <v>4.1000000000000003E-3</v>
       </c>
-      <c r="D5" s="3">
-        <f>B5/C5-1</f>
+      <c r="E6" s="14">
+        <f>C6/D6-1</f>
         <v>2.4390243902438824E-2</v>
       </c>
-      <c r="E5" s="1">
-        <f>B5-C5</f>
+      <c r="F6" s="12">
+        <f>C6-D6</f>
         <v>9.9999999999999395E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="G6" s="10"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="5">
+      <c r="C7" s="16">
         <v>486</v>
       </c>
-      <c r="C6" s="5">
+      <c r="D7" s="16">
         <v>484</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C8" s="12">
         <v>1101391</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="12">
         <v>1089712</v>
       </c>
-      <c r="D7" s="3">
-        <f>B7/C7-1</f>
+      <c r="E8" s="14">
+        <f>C8/D8-1</f>
         <v>1.0717510681721443E-2</v>
       </c>
-      <c r="E7" s="1">
-        <f>B7-C7</f>
+      <c r="F8" s="12">
+        <f>C8-D8</f>
         <v>11679</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="G8" s="10"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+      <c r="B9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5">
+      <c r="C9" s="16">
         <v>226000000</v>
       </c>
-      <c r="C8" s="5">
+      <c r="D9" s="16">
         <v>226000000</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="5">
+      <c r="C10" s="16">
         <v>535394693</v>
       </c>
-      <c r="C9" s="5">
+      <c r="D10" s="16">
         <v>528993905</v>
       </c>
-      <c r="D9" s="3">
-        <f>B9/C9-1</f>
+      <c r="E10" s="14">
+        <f>C10/D10-1</f>
         <v>1.2099927691983536E-2</v>
       </c>
-      <c r="E9" s="4">
-        <f>B9-C9</f>
+      <c r="F10" s="16">
+        <f>C10-D10</f>
         <v>6400788</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10">
+        <f>D9/D8</f>
+        <v>207.39424728735665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="3">
-        <f>B3/B2</f>
+      <c r="C13" s="6">
+        <f>C4/C3</f>
         <v>0.72396988042506538</v>
       </c>
-      <c r="C12" s="3">
-        <f>C3/C2</f>
+      <c r="D13" s="6">
+        <f>D4/D3</f>
         <v>0.72390699289537541</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="L14" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="10"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B15" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="H14" t="s">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="I14" s="1">
+      <c r="J15" s="12">
         <v>226000000</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="10"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
         <v>11</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D16" t="s">
         <v>12</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" s="10"/>
+      <c r="I16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J16" s="20">
+        <v>72648319</v>
+      </c>
+      <c r="K16" s="21">
+        <v>0.99547836410811719</v>
+      </c>
+      <c r="L16" s="14">
+        <f>C17</f>
+        <v>7.6038236700813914E-3</v>
+      </c>
+      <c r="M16" s="22">
+        <f>J16*K16*L16</f>
+        <v>549907.23329458642</v>
+      </c>
+      <c r="N16" s="12">
+        <f>J16*K16</f>
+        <v>72319829.753324643</v>
+      </c>
+      <c r="O16" s="10"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="27">
+        <f>C20/C21</f>
+        <v>7.6038236700813914E-3</v>
+      </c>
+      <c r="D17" s="26">
+        <f>D20/D21</f>
+        <v>2.8198687875075025E-3</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17" s="20">
+        <v>190481558</v>
+      </c>
+      <c r="K17" s="21">
+        <v>1.0017245273589868</v>
+      </c>
+      <c r="L17" s="14">
+        <f>D17</f>
+        <v>2.8198687875075025E-3</v>
+      </c>
+      <c r="M17" s="22">
+        <f>J17*K17*L17</f>
+        <v>538059.30055391463</v>
+      </c>
+      <c r="N17" s="12">
+        <f>J17*K17</f>
+        <v>190810048.65815341</v>
+      </c>
+      <c r="O17" s="10"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7">
+        <f>C19/C20</f>
+        <v>532.92984133018342</v>
+      </c>
+      <c r="D18" s="7">
+        <f>D19/D20</f>
+        <v>436.7647658959699</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="2">
-        <v>72648319</v>
-      </c>
-      <c r="J15" s="4">
-        <v>0.32</v>
-      </c>
-      <c r="K15" s="1">
-        <f>I15*J15</f>
-        <v>23247462.080000002</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3">
-        <v>7.6E-3</v>
-      </c>
-      <c r="C16" s="3">
-        <v>2.8E-3</v>
-      </c>
-      <c r="H16" t="s">
+      <c r="J18" s="20">
+        <v>263129877</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="22">
+        <f>SUM(M16:M17)</f>
+        <v>1087966.533848501</v>
+      </c>
+      <c r="N18" s="12">
+        <f>SUM(N16:N17)</f>
+        <v>263129878.41147804</v>
+      </c>
+      <c r="O18" s="10"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>294393109</v>
+      </c>
+      <c r="D19" s="2">
+        <v>234600769</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2">
+        <v>552405</v>
+      </c>
+      <c r="D20" s="2">
+        <v>537133</v>
+      </c>
+      <c r="F20">
+        <f>D20/D8</f>
+        <v>0.49291280631946788</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="15">
+        <f>J15/M18</f>
+        <v>207.72697777804112</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2">
+        <v>72648318</v>
+      </c>
+      <c r="D21" s="2">
+        <v>190481558</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="14">
+        <f>M17/M18</f>
+        <v>0.49455501048420963</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="I16" s="2">
-        <v>190481558</v>
-      </c>
-      <c r="J16" s="4">
-        <v>1.19</v>
-      </c>
-      <c r="K16" s="1">
-        <f>I16*J16</f>
-        <v>226673054.01999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17" s="4">
-        <f>B18/B19</f>
-        <v>532.92984133018342</v>
-      </c>
-      <c r="C17" s="4">
-        <f>C18/C19</f>
-        <v>436.7647658959699</v>
-      </c>
-      <c r="H17" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="2">
-        <v>263129877</v>
-      </c>
-      <c r="K17" s="1">
-        <f>SUM(K15:K16)</f>
-        <v>249920516.09999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1">
-        <v>294393109</v>
-      </c>
-      <c r="C18" s="1">
-        <v>234600769</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="1">
-        <v>552405</v>
-      </c>
-      <c r="C19" s="1">
-        <v>537133</v>
-      </c>
-      <c r="I19" s="8"/>
-      <c r="J19" s="4">
-        <f>I14/I17</f>
-        <v>0.85889144393891848</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="K22" s="15">
+        <f>J15/N18</f>
+        <v>0.85889143933166356</v>
+      </c>
+      <c r="L22" s="24"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C24" s="3">
+        <f>C21+D21</f>
+        <v>263129876</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
+      <c r="B31" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+      <c r="B34" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="16">
+        <v>226000000</v>
+      </c>
+      <c r="D34" s="16">
+        <f>C9</f>
+        <v>226000000</v>
+      </c>
+      <c r="E34" s="14">
+        <f>C34/D34-1</f>
         <v>0</v>
       </c>
-      <c r="B20" s="1">
-        <v>72648318</v>
-      </c>
-      <c r="C20" s="1">
-        <v>190481558</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <f>B20+C20</f>
-        <v>263129876</v>
+      <c r="F34" s="10"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="15">
+        <v>555412006.08000004</v>
+      </c>
+      <c r="D35" s="15">
+        <f>C10</f>
+        <v>535394693</v>
+      </c>
+      <c r="E35" s="14">
+        <f t="shared" ref="E35:E39" si="0">C35/D35-1</f>
+        <v>3.7387955730073141E-2</v>
+      </c>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="12">
+        <v>263130859</v>
+      </c>
+      <c r="D36" s="12">
+        <v>263129477</v>
+      </c>
+      <c r="E36" s="13">
+        <f t="shared" si="0"/>
+        <v>5.2521671678462667E-6</v>
+      </c>
+      <c r="F36" s="10"/>
+      <c r="G36" s="1">
+        <f>C36-D36</f>
+        <v>1382</v>
+      </c>
+      <c r="H36" s="28">
+        <f>G36/C36</f>
+        <v>5.2521395827617468E-6</v>
+      </c>
+      <c r="I36">
+        <f>(1-H36)*C36</f>
+        <v>263129477</v>
+      </c>
+      <c r="J36" s="2">
+        <f>(1-(C36-D36)/C36)*C36</f>
+        <v>263129477</v>
+      </c>
+      <c r="K36" s="6">
+        <f>1-H36</f>
+        <v>0.9999947478604172</v>
+      </c>
+      <c r="L36" s="3">
+        <f>C36*K36</f>
+        <v>263129477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="12">
+        <v>1101369</v>
+      </c>
+      <c r="D37" s="12">
+        <f>C8</f>
+        <v>1101391</v>
+      </c>
+      <c r="E37" s="13">
+        <f t="shared" si="0"/>
+        <v>-1.9974741031991705E-5</v>
+      </c>
+      <c r="F37" s="10"/>
+      <c r="G37" s="1">
+        <f>C37-D37</f>
+        <v>-22</v>
+      </c>
+      <c r="H37" s="28">
+        <f>G37/C37</f>
+        <v>-1.9975140030271417E-5</v>
+      </c>
+      <c r="I37">
+        <f>(1-H37)*C37</f>
+        <v>1101391</v>
+      </c>
+      <c r="J37" s="2">
+        <f>(1-(C37-D37)/C37)*C37</f>
+        <v>1101391</v>
+      </c>
+      <c r="K37" s="6">
+        <f>1-H37</f>
+        <v>1.0000199751400303</v>
+      </c>
+      <c r="L37" s="3">
+        <f>C37*K37</f>
+        <v>1101391</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="15">
+        <f>C35/C36</f>
+        <v>2.1107824760303013</v>
+      </c>
+      <c r="D38" s="15">
+        <f>C5</f>
+        <v>2.034719557474741</v>
+      </c>
+      <c r="E38" s="14">
+        <f t="shared" si="0"/>
+        <v>3.7382507223728156E-2</v>
+      </c>
+      <c r="F38" s="10"/>
+      <c r="G38" s="1">
+        <f>C38-D38</f>
+        <v>7.6062918555560355E-2</v>
+      </c>
+      <c r="H38" s="28">
+        <f>G38/C38</f>
+        <v>3.6035413132010689E-2</v>
+      </c>
+      <c r="I38">
+        <f>(1-H38)*C38</f>
+        <v>2.034719557474741</v>
+      </c>
+      <c r="J38" s="2">
+        <f>(1-(C38-D38)/C38)*C38</f>
+        <v>2.034719557474741</v>
+      </c>
+      <c r="K38" s="6">
+        <f>1-H38</f>
+        <v>0.96396458686798936</v>
+      </c>
+      <c r="L38" s="3">
+        <f>C38*K38</f>
+        <v>2.034719557474741</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+      <c r="B39" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="15">
+        <v>504.29</v>
+      </c>
+      <c r="D39" s="15">
+        <v>486</v>
+      </c>
+      <c r="E39" s="14">
+        <f t="shared" si="0"/>
+        <v>3.7633744855967155E-2</v>
+      </c>
+      <c r="F39" s="10"/>
+      <c r="G39" s="1">
+        <f>C39-D39</f>
+        <v>18.29000000000002</v>
+      </c>
+      <c r="H39" s="28">
+        <f>G39/C39</f>
+        <v>3.6268813579488031E-2</v>
+      </c>
+      <c r="I39">
+        <f>(1-H39)*C39</f>
+        <v>486</v>
+      </c>
+      <c r="J39" s="2">
+        <f>(1-(C39-D39)/C39)*C39</f>
+        <v>486</v>
+      </c>
+      <c r="K39" s="6">
+        <f>1-H39</f>
+        <v>0.96373118642051192</v>
+      </c>
+      <c r="L39" s="3">
+        <f>C39*K39</f>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C52" s="2">
+        <v>1000000000</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C53" s="2">
+        <v>860151336</v>
+      </c>
+    </row>
+    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C54" s="2">
+        <f>C52-C53</f>
+        <v>139848664</v>
       </c>
     </row>
   </sheetData>
   <scenarios current="0">
     <scenario name="CPC" locked="1" count="2" user="Sherman Distin" comment="Created by Sherman Distin on 12/29/2020">
-      <inputCells r="J15" val="0.32" numFmtId="44"/>
-      <inputCells r="J16" val="1.19" numFmtId="44"/>
+      <inputCells r="K16" val="0.32" numFmtId="44"/>
+      <inputCells r="K17" val="1.19" numFmtId="44"/>
     </scenario>
   </scenarios>
   <mergeCells count="2">
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E2:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
